--- a/Score_tracker.xlsx
+++ b/Score_tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/373af7db0403269c/Documents/GitHub/GPT_Experiments/Titanic-GPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_F25DC773A252ABDACC1048E0E9DF7FBA5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D84FB60A-1721-465F-8CC7-C254398FF0B8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_F25DC773A252ABDACC1048E0E9DF7FBA5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9AA813E9-E141-4A4D-B23A-8620325284BA}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Model</t>
   </si>
@@ -34,16 +34,55 @@
   </si>
   <si>
     <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>v6</t>
+  </si>
+  <si>
+    <t>v7</t>
+  </si>
+  <si>
+    <t>v8</t>
+  </si>
+  <si>
+    <t>v9</t>
+  </si>
+  <si>
+    <t>v10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -69,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -86,6 +126,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -351,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +419,80 @@
         <v>0.74641000000000002</v>
       </c>
     </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.73684000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.77032999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.76075999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.77510999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.76554999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.76793999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.75597999999999999</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
